--- a/02_PHP_MYSQL/02_DBdesign/library.xlsx
+++ b/02_PHP_MYSQL/02_DBdesign/library.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase tables" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'DataBase tables'!$A$1:$A$5" spid="_x0000_s2065"/>
+                  <a14:cameraTool cellRange="'DataBase tables'!$A$1:$A$5" spid="_x0000_s2070"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -392,7 +392,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'DataBase tables'!$C$1:$C$6" spid="_x0000_s2066"/>
+                  <a14:cameraTool cellRange="'DataBase tables'!$C$1:$C$6" spid="_x0000_s2071"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -451,7 +451,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'DataBase tables'!$G$1:$G$5" spid="_x0000_s2067"/>
+                  <a14:cameraTool cellRange="'DataBase tables'!$G$1:$G$5" spid="_x0000_s2072"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -663,7 +663,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'DataBase tables'!$I$1:$I$5" spid="_x0000_s2068"/>
+                  <a14:cameraTool cellRange="'DataBase tables'!$I$1:$I$5" spid="_x0000_s2073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -722,7 +722,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'DataBase tables'!$K$1:$K$5" spid="_x0000_s2069"/>
+                  <a14:cameraTool cellRange="'DataBase tables'!$K$1:$K$5" spid="_x0000_s2074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1199,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
